--- a/02.Bluepoint import models/Meter-Data_import__spreadsheet_bluepoint_Dec_2020.xlsx
+++ b/02.Bluepoint import models/Meter-Data_import__spreadsheet_bluepoint_Dec_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edfengroup.sharepoint.com/sites/EDFRE_DSIN_Outildegestiondesparcs-02-Conception/Shared Documents/02 - Conception/04 - Migration données/02.Bluepoint import models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{5598EED6-0D01-CC4A-9765-FCFF51FA52F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA28D617-A19D-4DDB-ADF7-3D648C26019F}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{5598EED6-0D01-CC4A-9765-FCFF51FA52F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{293A6E5B-4099-4E22-888C-DB59EA81614A}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="-120" windowWidth="37605" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="3510" windowWidth="37980" windowHeight="15885" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meter Data (Daily or Monthly)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -178,9 +178,6 @@
     <t>Interval</t>
   </si>
   <si>
-    <t>TP_ABC</t>
-  </si>
-  <si>
     <t>Gross Generation</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>1657.81</t>
   </si>
   <si>
-    <t>XO_1</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>170.91</t>
   </si>
   <si>
-    <t>ABC_SA</t>
-  </si>
-  <si>
     <t>Lifetime</t>
   </si>
   <si>
@@ -236,6 +227,9 @@
   </si>
   <si>
     <t>Utility Statement</t>
+  </si>
+  <si>
+    <t>MTL1</t>
   </si>
 </sst>
 </file>
@@ -710,13 +704,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z932"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="A3:E4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="46.140625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -815,146 +809,146 @@
     </row>
     <row r="4" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5">
         <v>44927</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>43952</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5">
         <v>43922</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5">
         <v>43923</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5">
         <v>43924</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5">
         <v>43925</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6">
         <v>43831.041666666664</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7">
         <v>43831.083333333336</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5">
         <v>43830</v>
@@ -963,15 +957,15 @@
         <v>200000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5">
         <v>43861</v>
@@ -980,15 +974,15 @@
         <v>150000</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5">
         <v>43890</v>
@@ -997,7 +991,7 @@
         <v>135000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1938,25 +1932,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2D786DD4615AD4C929867322DAD61A4" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="8a4b7266a4bb969b443a658d01bb7174">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7bb0b83e-420c-4a8a-8b8d-6814ce313c87" xmlns:ns3="737540b7-7beb-44e9-ac50-e0c53972ff5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b0685874f74f8bed09a42a659eb7eeb" ns2:_="" ns3:_="">
-    <xsd:import namespace="7bb0b83e-420c-4a8a-8b8d-6814ce313c87"/>
-    <xsd:import namespace="737540b7-7beb-44e9-ac50-e0c53972ff5f"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B42F7B4AC2B9FB47A2173F853ED4E5E6" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2554e4bc6a999e76a3fe33ccf7d06d9a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eb2bd482-b9c2-4538-9042-cb52d8f965c5" xmlns:ns3="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1797702264ec573e89d227db9e0e6766" ns2:_="" ns3:_="">
+    <xsd:import namespace="eb2bd482-b9c2-4538-9042-cb52d8f965c5"/>
+    <xsd:import namespace="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1964,53 +1959,10 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7bb0b83e-420c-4a8a-8b8d-6814ce313c87" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="eb2bd482-b9c2-4538-9042-cb52d8f965c5" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6dbcb339-0d13-475d-8eb4-ac78b8faaaf8" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="737540b7-7beb-44e9-ac50-e0c53972ff5f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2029,11 +1981,59 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6dbcb339-0d13-475d-8eb4-ac78b8faaaf8" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2139,7 +2139,7 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bb0b83e-420c-4a8a-8b8d-6814ce313c87">
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
@@ -2155,7 +2155,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C28BC909-F3EA-414C-B5B0-B3050B406421}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FB42AE7-BC0A-4D4E-9DF3-BFA4744C999A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
